--- a/regions/8/transporti da kavshirgabmuloba/transporti da dasawyobeba.xlsx
+++ b/regions/8/transporti da kavshirgabmuloba/transporti da dasawyobeba.xlsx
@@ -64,11 +64,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -286,6 +286,7 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -593,39 +594,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="76.140625" customWidth="1"/>
     <col min="2" max="11" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="19" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:18" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -642,7 +646,7 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9">
         <v>2006</v>
@@ -689,8 +693,14 @@
       <c r="P3" s="17">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75">
+      <c r="Q3" s="17">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="17">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>0</v>
       </c>
@@ -739,8 +749,14 @@
       <c r="P4" s="27">
         <v>104.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75">
+      <c r="Q4" s="27">
+        <v>140.69999999999999</v>
+      </c>
+      <c r="R4" s="27">
+        <v>185.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>1</v>
       </c>
@@ -789,8 +805,14 @@
       <c r="P5" s="27">
         <v>93.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75">
+      <c r="Q5" s="27">
+        <v>121.4</v>
+      </c>
+      <c r="R5" s="27">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>7</v>
       </c>
@@ -839,8 +861,14 @@
       <c r="P6" s="27">
         <v>1852</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75">
+      <c r="Q6" s="27">
+        <v>3003</v>
+      </c>
+      <c r="R6" s="27">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>8</v>
       </c>
@@ -889,8 +917,14 @@
       <c r="P7" s="27">
         <v>1597</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" s="18" customFormat="1">
+      <c r="Q7" s="27">
+        <v>2378</v>
+      </c>
+      <c r="R7" s="27">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>13</v>
       </c>
@@ -939,8 +973,14 @@
       <c r="P8" s="27">
         <v>754.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75">
+      <c r="Q8" s="35">
+        <v>593</v>
+      </c>
+      <c r="R8" s="35">
+        <v>963.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>2</v>
       </c>
@@ -989,8 +1029,14 @@
       <c r="P9" s="27">
         <v>41.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75">
+      <c r="Q9" s="27">
+        <v>54.1</v>
+      </c>
+      <c r="R9" s="27">
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>3</v>
       </c>
@@ -1039,8 +1085,14 @@
       <c r="P10" s="27">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75">
+      <c r="Q10" s="27">
+        <v>17.2</v>
+      </c>
+      <c r="R10" s="27">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>4</v>
       </c>
@@ -1089,8 +1141,14 @@
       <c r="P11" s="27">
         <v>51.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75">
+      <c r="Q11" s="27">
+        <v>67.3</v>
+      </c>
+      <c r="R11" s="27">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>9</v>
       </c>
@@ -1139,8 +1197,14 @@
       <c r="P12" s="27">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75">
+      <c r="Q12" s="27">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="R12" s="27">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>5</v>
       </c>
@@ -1189,8 +1253,14 @@
       <c r="P13" s="27">
         <v>52.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" s="18" customFormat="1">
+      <c r="Q13" s="27">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="R13" s="27">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>10</v>
       </c>
@@ -1239,8 +1309,14 @@
       <c r="P14" s="27">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.75">
+      <c r="Q14" s="27">
+        <v>24.9</v>
+      </c>
+      <c r="R14" s="35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1257,13 +1333,13 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="1:16" s="15" customFormat="1">
+    <row r="16" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="16"/>
     </row>
-    <row r="17" spans="1:15" ht="15.75">
+    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="12"/>
       <c r="C17" s="13"/>
@@ -1280,7 +1356,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="14"/>
       <c r="C18" s="13"/>
@@ -1297,7 +1373,7 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="14"/>
       <c r="C19" s="13"/>
@@ -1314,7 +1390,7 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -1331,7 +1407,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -1348,74 +1424,74 @@
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="5"/>
       <c r="D24" s="3"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
       <c r="D25" s="3"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
       <c r="D26" s="3"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="3:4">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="3:4">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="3:4">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35" s="5"/>
     </row>
   </sheetData>

--- a/regions/8/transporti da kavshirgabmuloba/transporti da dasawyobeba.xlsx
+++ b/regions/8/transporti da kavshirgabmuloba/transporti da dasawyobeba.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B296D08-9968-4C54-B813-984E356942F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="1725" windowWidth="21825" windowHeight="6345"/>
+    <workbookView xWindow="540" yWindow="1125" windowWidth="14265" windowHeight="9855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,11 +65,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,46 +209,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -262,8 +253,8 @@
     <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -383,6 +374,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -418,6 +426,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -593,731 +618,750 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:P1"/>
+      <selection pane="bottomRight" activeCell="S4" sqref="S4:S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="76.140625" customWidth="1"/>
     <col min="2" max="11" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:19" s="15" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7">
         <v>2006</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>2007</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>2008</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>2009</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>2010</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="8">
         <v>2011</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="8">
         <v>2012</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="8">
         <v>2013</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="9">
         <v>2014</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="9">
         <v>2015</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="8">
         <v>2016</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="8">
         <v>2017</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N3" s="8">
         <v>2018</v>
       </c>
-      <c r="O3" s="17">
+      <c r="O3" s="8">
         <v>2019</v>
       </c>
-      <c r="P3" s="17">
+      <c r="P3" s="8">
         <v>2020</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="Q3" s="8">
         <v>2021</v>
       </c>
-      <c r="R3" s="17">
+      <c r="R3" s="8">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="S3" s="8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75">
+      <c r="A4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="20">
         <v>29.14875</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="20">
         <v>9.8274399999999993</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="20">
         <v>13.11389</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="20">
         <v>19.450030000000002</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="20">
         <v>13.25648</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="20">
         <v>14.01511</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="21">
         <v>18.600000000000001</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="21">
         <v>18.600000000000001</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="22">
         <v>21.8965</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="22">
         <v>47.738900000000001</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="21">
         <v>97.2</v>
       </c>
-      <c r="M4" s="24">
+      <c r="M4" s="20">
         <v>117.31095000000001</v>
       </c>
-      <c r="N4" s="24">
+      <c r="N4" s="20">
         <v>126.87276</v>
       </c>
-      <c r="O4" s="27">
+      <c r="O4" s="23">
         <v>106.1</v>
       </c>
-      <c r="P4" s="27">
+      <c r="P4" s="23">
         <v>104.7</v>
       </c>
-      <c r="Q4" s="27">
+      <c r="Q4" s="23">
         <v>140.69999999999999</v>
       </c>
-      <c r="R4" s="27">
+      <c r="R4" s="23">
         <v>185.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="S4" s="23">
+        <v>226.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75">
+      <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="20">
         <v>27.830069999999999</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="20">
         <v>9.9248200000000004</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="20">
         <v>12.891909999999999</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="20">
         <v>20.549959999999999</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="20">
         <v>13.808730000000001</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="20">
         <v>10.756080000000001</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="22">
         <v>18.399999999999999</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="22">
         <v>17.5</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="21">
         <v>22.2</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="21">
         <v>31.4</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="21">
         <v>43.3</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M5" s="20">
         <v>53.556629999999998</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="20">
         <v>74.953289999999996</v>
       </c>
-      <c r="O5" s="27">
+      <c r="O5" s="23">
         <v>94.4</v>
       </c>
-      <c r="P5" s="27">
+      <c r="P5" s="23">
         <v>93.3</v>
       </c>
-      <c r="Q5" s="27">
+      <c r="Q5" s="23">
         <v>121.4</v>
       </c>
-      <c r="R5" s="27">
+      <c r="R5" s="31">
         <v>182</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="S5" s="31">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75">
+      <c r="A6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="24">
         <v>2098.67875</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="24">
         <v>655.87247000000002</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="24">
         <v>565.61539000000005</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="24">
         <v>825.49747000000002</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="24">
         <v>832.00000999999997</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="24">
         <v>581.28867000000002</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="21">
         <v>954</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="21">
         <v>688</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="21">
         <v>815</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="21">
         <v>917</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="21">
         <v>1705</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M6" s="24">
         <v>1896.49092</v>
       </c>
-      <c r="N6" s="28">
+      <c r="N6" s="24">
         <v>2106.2287500000002</v>
       </c>
-      <c r="O6" s="27">
+      <c r="O6" s="23">
         <v>2237</v>
       </c>
-      <c r="P6" s="27">
+      <c r="P6" s="23">
         <v>1852</v>
       </c>
-      <c r="Q6" s="27">
+      <c r="Q6" s="23">
         <v>3003</v>
       </c>
-      <c r="R6" s="27">
+      <c r="R6" s="23">
         <v>3236</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="S6" s="23">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75">
+      <c r="A7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="24">
         <v>1969.8</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="24">
         <v>551.80556000000001</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="24">
         <v>534</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="24">
         <v>769.66665999999998</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="24">
         <v>774.15554999999995</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="24">
         <v>564.39399000000003</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="21">
         <v>902</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="21">
         <v>629</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="21">
         <v>806</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="21">
         <v>754</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="21">
         <v>1471</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7" s="24">
         <v>1473.8279700000001</v>
       </c>
-      <c r="N7" s="28">
+      <c r="N7" s="24">
         <v>1694.5521699999999</v>
       </c>
-      <c r="O7" s="27">
+      <c r="O7" s="23">
         <v>1950</v>
       </c>
-      <c r="P7" s="27">
+      <c r="P7" s="23">
         <v>1597</v>
       </c>
-      <c r="Q7" s="27">
+      <c r="Q7" s="23">
         <v>2378</v>
       </c>
-      <c r="R7" s="27">
+      <c r="R7" s="23">
         <v>2197</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="S7" s="23">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="14" customFormat="1">
+      <c r="A8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="25">
         <v>344.06987099999998</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="25">
         <v>285.32087100000001</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="25">
         <v>388.44283100000001</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="25">
         <v>641.20115899999996</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="25">
         <v>479.53536500000001</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="25">
         <v>345.59449799999999</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="26">
         <v>398.5</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="26">
         <v>528.1</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="27">
         <v>308.7</v>
       </c>
-      <c r="K8" s="31">
+      <c r="K8" s="27">
         <v>606.1</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="26">
         <v>444.9</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="25">
         <v>550.07183699999996</v>
       </c>
-      <c r="N8" s="29">
+      <c r="N8" s="25">
         <v>574.31470000000002</v>
       </c>
-      <c r="O8" s="32">
+      <c r="O8" s="28">
         <v>645.6</v>
       </c>
-      <c r="P8" s="27">
+      <c r="P8" s="23">
         <v>754.8</v>
       </c>
-      <c r="Q8" s="35">
+      <c r="Q8" s="31">
         <v>593</v>
       </c>
-      <c r="R8" s="35">
+      <c r="R8" s="31">
         <v>963.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="S8" s="31">
+        <v>1043.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75">
+      <c r="A9" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="20">
         <v>24.43608</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="29">
         <v>6.26342</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="20">
         <v>5.9639699999999998</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="20">
         <v>9.6648599999999991</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="20">
         <v>8.5099199999999993</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="20">
         <v>6.9657</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="21">
         <v>7.2</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="21">
         <v>9.6999999999999993</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="22">
         <v>15.312100000000001</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="22">
         <v>19.147400000000001</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="21">
         <v>21.6</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="20">
         <v>27.786079999999998</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="20">
         <v>31.06804</v>
       </c>
-      <c r="O9" s="27">
+      <c r="O9" s="23">
         <v>48.3</v>
       </c>
-      <c r="P9" s="27">
+      <c r="P9" s="23">
         <v>41.5</v>
       </c>
-      <c r="Q9" s="27">
+      <c r="Q9" s="23">
         <v>54.1</v>
       </c>
-      <c r="R9" s="27">
+      <c r="R9" s="23">
         <v>93.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="S9" s="23">
+        <v>103.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75">
+      <c r="A10" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="20">
         <v>9.8378399999999999</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="20">
         <v>2.28315</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="20">
         <v>2.4891299999999998</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="20">
         <v>5.9221399999999997</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="20">
         <v>4.4733299999999998</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="20">
         <v>2.3406400000000001</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="21">
         <v>4.3</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="22">
         <v>4</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="22">
         <v>2.9843000000000002</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="22">
         <v>5.6343000000000005</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="21">
         <v>7.9</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="20">
         <v>9.7285299999999992</v>
       </c>
-      <c r="N10" s="24">
+      <c r="N10" s="20">
         <v>11.67849</v>
       </c>
-      <c r="O10" s="27">
+      <c r="O10" s="23">
         <v>15.2</v>
       </c>
-      <c r="P10" s="27">
+      <c r="P10" s="23">
         <v>14.9</v>
       </c>
-      <c r="Q10" s="27">
+      <c r="Q10" s="23">
         <v>17.2</v>
       </c>
-      <c r="R10" s="27">
+      <c r="R10" s="23">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="S10" s="23">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75">
+      <c r="A11" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="20">
         <v>3.3939900000000001</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="20">
         <v>3.6613799999999999</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="20">
         <v>6.9279500000000001</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="20">
         <v>10.88513</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="20">
         <v>5.2988099999999996</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="20">
         <v>3.7903799999999999</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="21">
         <v>11.3</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="21">
         <v>7.8</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="22">
         <v>6.9023000000000003</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="22">
         <v>12.2226</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="22">
         <v>21.8</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="20">
         <v>25.770520000000001</v>
       </c>
-      <c r="N11" s="24">
+      <c r="N11" s="20">
         <v>43.885269999999998</v>
       </c>
-      <c r="O11" s="27">
+      <c r="O11" s="23">
         <v>46.1</v>
       </c>
-      <c r="P11" s="27">
+      <c r="P11" s="23">
         <v>51.8</v>
       </c>
-      <c r="Q11" s="27">
+      <c r="Q11" s="23">
         <v>67.3</v>
       </c>
-      <c r="R11" s="27">
+      <c r="R11" s="23">
         <v>88.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+      <c r="S11" s="23">
+        <v>121.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75">
+      <c r="A12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="20">
         <v>0.77327000000000001</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="20">
         <v>1.72916</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="20">
         <v>1.16743</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="20">
         <v>3.01037</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="20">
         <v>0.11280999999999999</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="20">
         <v>0.33044000000000001</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="21">
         <v>0.1</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="21">
         <v>0.6</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="22">
         <v>11.8286</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="22">
         <v>2.3033000000000001</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="21">
         <v>4.8</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="20">
         <v>2.7377400000000001</v>
       </c>
-      <c r="N12" s="24">
+      <c r="N12" s="20">
         <v>4.2693899999999996</v>
       </c>
-      <c r="O12" s="27">
+      <c r="O12" s="23">
         <v>16.600000000000001</v>
       </c>
-      <c r="P12" s="27">
+      <c r="P12" s="23">
         <v>16.3</v>
       </c>
-      <c r="Q12" s="27">
+      <c r="Q12" s="23">
         <v>18.600000000000001</v>
       </c>
-      <c r="R12" s="27">
+      <c r="R12" s="23">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="S12" s="23">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75">
+      <c r="A13" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="20">
         <v>6.2668699999999999</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="20">
         <v>6.3943500000000002</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="20">
         <v>9.9156399999999998</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="20">
         <v>9.4297299999999993</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="20">
         <v>10.404299999999999</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="22">
         <v>7</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="22">
         <v>11</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="22">
         <v>14.992100000000001</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="22">
         <v>36.049900000000001</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="22">
         <v>74.599999999999994</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="20">
         <v>92.768079999999998</v>
       </c>
-      <c r="N13" s="24">
+      <c r="N13" s="20">
         <v>87.569100000000006</v>
       </c>
-      <c r="O13" s="27">
+      <c r="O13" s="23">
         <v>57.7</v>
       </c>
-      <c r="P13" s="27">
+      <c r="P13" s="23">
         <v>52.5</v>
       </c>
-      <c r="Q13" s="27">
+      <c r="Q13" s="23">
         <v>77.099999999999994</v>
       </c>
-      <c r="R13" s="27">
+      <c r="R13" s="23">
         <v>103.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="S13" s="23">
+        <v>117.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="14" customFormat="1">
+      <c r="A14" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="25">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="25">
         <v>0.28391</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="25">
         <v>0</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="25">
         <v>0</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="25">
         <v>3.41892</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="26">
         <v>0.1</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="26">
         <v>1.3</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="31">
+      <c r="K14" s="27">
         <v>17.303000000000001</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L14" s="26">
         <v>54.3</v>
       </c>
-      <c r="M14" s="29">
+      <c r="M14" s="25">
         <v>65.32029</v>
       </c>
-      <c r="N14" s="29">
+      <c r="N14" s="25">
         <v>56.422600000000003</v>
       </c>
-      <c r="O14" s="32">
+      <c r="O14" s="28">
         <v>10.4</v>
       </c>
-      <c r="P14" s="27">
+      <c r="P14" s="23">
         <v>15.5</v>
       </c>
-      <c r="Q14" s="27">
+      <c r="Q14" s="23">
         <v>24.9</v>
       </c>
-      <c r="R14" s="35">
+      <c r="R14" s="31">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
+      <c r="S14" s="31">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.75">
+      <c r="A15" s="16"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1329,22 +1373,19 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+    </row>
+    <row r="16" spans="1:19" s="12" customFormat="1">
+      <c r="A16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="16"/>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
+      <c r="B16" s="13"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75">
+      <c r="A17" s="16"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1352,147 +1393,100 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:12">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="B24" s="2"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="6"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="5"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="B32" s="5"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
